--- a/Proposal/Design/CS4366 Design Use Cases.xlsx
+++ b/Proposal/Design/CS4366 Design Use Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Use Cases</t>
   </si>
@@ -66,9 +66,6 @@
     <t>System</t>
   </si>
   <si>
-    <t>Administrator Clost Post</t>
-  </si>
-  <si>
     <t>Administrator</t>
   </si>
   <si>
@@ -87,12 +84,6 @@
     <t>Actor : Guest User</t>
   </si>
   <si>
-    <t>0. The system displays any page on the forum domain with the administrator user logged in.</t>
-  </si>
-  <si>
-    <t>2. The system displays the thread selected by the administrator user.</t>
-  </si>
-  <si>
     <t>1. The administrator user selects a thread to be closed.</t>
   </si>
   <si>
@@ -100,13 +91,43 @@
   </si>
   <si>
     <t>4. The sytems displays page "Thread Closed" with title of thread.</t>
+  </si>
+  <si>
+    <t>Administrator Close Post</t>
+  </si>
+  <si>
+    <t>2. The system displays "Are you sure?" question on the thread selected by the administrator user.</t>
+  </si>
+  <si>
+    <t>Administrator Move Post</t>
+  </si>
+  <si>
+    <t>The administrator user has the authority to move a post to a different topic/category.</t>
+  </si>
+  <si>
+    <t>The administrator user moves a thread.</t>
+  </si>
+  <si>
+    <t>0. The system displays any page on the forum domain and an administrator user is logged in.</t>
+  </si>
+  <si>
+    <t>1. The administrator user selects a thread to be moved.</t>
+  </si>
+  <si>
+    <t>2. The system displays "Are you sure?" questions on the thread selected by the administrator user.</t>
+  </si>
+  <si>
+    <t>3. The administrator user selectes move thread.</t>
+  </si>
+  <si>
+    <t>4. The system diplays page "Thread Moved" with title of thread to new location.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,7 +144,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,7 +152,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -173,15 +203,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,6 +221,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,57 +538,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -555,70 +597,70 @@
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -626,33 +668,107 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Proposal/Design/CS4366 Design Use Cases.xlsx
+++ b/Proposal/Design/CS4366 Design Use Cases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="19155" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Use Cases</t>
   </si>
@@ -121,13 +121,40 @@
   </si>
   <si>
     <t>4. The system diplays page "Thread Moved" with title of thread to new location.</t>
+  </si>
+  <si>
+    <t>Reward Points</t>
+  </si>
+  <si>
+    <t>The system will reward points based on correct answers to posted questions</t>
+  </si>
+  <si>
+    <t>A user has chosen a correct answer to their post</t>
+  </si>
+  <si>
+    <t>The user who answered correctly is rewarded points to their account</t>
+  </si>
+  <si>
+    <t>Blog Manager</t>
+  </si>
+  <si>
+    <t>Actor : Blog Manager</t>
+  </si>
+  <si>
+    <t>1. The blog manager identifies the user with the correct answer</t>
+  </si>
+  <si>
+    <t>2. The system rewards a set number of points to the appropriate account</t>
+  </si>
+  <si>
+    <t>0. The system finds an answer marked as correct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,7 +353,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -361,7 +387,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,30 +562,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.85546875" customWidth="1"/>
     <col min="2" max="2" width="113.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="21">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -568,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -576,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -584,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -592,11 +617,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="18.75">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -604,13 +629,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="18.75">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="18.75">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -618,7 +643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="18.75">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -626,12 +651,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="21">
       <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -639,7 +664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -647,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="18.75">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -655,7 +680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="18.75">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -663,11 +688,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="18.75">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -675,13 +700,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="18.75">
       <c r="A22" s="4"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="18.75">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -689,7 +714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="18.75">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -697,15 +722,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="18.75">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="18.75">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="21">
+      <c r="A27" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -713,7 +743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="18.75">
       <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,7 +751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="18.75">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -729,7 +759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="18.75">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -737,11 +767,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="18.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="18.75">
       <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
@@ -749,13 +779,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="18.75">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="18.75">
       <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
@@ -763,13 +793,80 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="18.75">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="39" spans="1:2" ht="21">
+      <c r="A39" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18.75">
+      <c r="A40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18.75">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18.75">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18.75">
+      <c r="A43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="18.75">
+      <c r="A45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18.75">
+      <c r="A46" s="4"/>
+      <c r="B46" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18.75">
+      <c r="A47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18.75">
+      <c r="A48" s="9"/>
+      <c r="B48" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -778,24 +875,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proposal/Design/CS4366 Design Use Cases.xlsx
+++ b/Proposal/Design/CS4366 Design Use Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>Use Cases</t>
   </si>
@@ -148,6 +148,63 @@
   </si>
   <si>
     <t>0. The system finds an answer marked as correct</t>
+  </si>
+  <si>
+    <t>Registered User</t>
+  </si>
+  <si>
+    <t>Post Question</t>
+  </si>
+  <si>
+    <t>Actor : Registered User</t>
+  </si>
+  <si>
+    <t>The registered user can post new questions on the blog</t>
+  </si>
+  <si>
+    <t>The user is registered and logged in</t>
+  </si>
+  <si>
+    <t>A new question is posted onto the blog</t>
+  </si>
+  <si>
+    <t>0. The user clicks the 'Post' button</t>
+  </si>
+  <si>
+    <t>1. System displays PostTemplate page</t>
+  </si>
+  <si>
+    <t>2. The user fills out the template for their question</t>
+  </si>
+  <si>
+    <t>3. System creates a new post page for the user's question</t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Users with accounts can login</t>
+  </si>
+  <si>
+    <t>The user has account on the blog</t>
+  </si>
+  <si>
+    <t>The user logs into the blog</t>
+  </si>
+  <si>
+    <t>0. The user opens the webpage</t>
+  </si>
+  <si>
+    <t>1. System displays the blog homepage</t>
+  </si>
+  <si>
+    <t>2. The user enters their login credentials and clicks 'Login'</t>
+  </si>
+  <si>
+    <t>3. System verifies user's login credentials and logs user in</t>
   </si>
 </sst>
 </file>
@@ -230,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -264,6 +321,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -867,6 +932,140 @@
     <row r="48" spans="1:2" ht="18.75">
       <c r="A48" s="9"/>
       <c r="B48" s="8"/>
+    </row>
+    <row r="50" spans="1:2" ht="21">
+      <c r="A50" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18.75">
+      <c r="A51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18.75">
+      <c r="A52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18.75">
+      <c r="A53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18.75">
+      <c r="A54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18.75">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" ht="18.75">
+      <c r="A56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18.75">
+      <c r="A57" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18.75">
+      <c r="A58" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="21">
+      <c r="A61" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18.75">
+      <c r="A62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18.75">
+      <c r="A63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18.75">
+      <c r="A64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18.75">
+      <c r="A65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18.75">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="18.75">
+      <c r="A67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18.75">
+      <c r="A68" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18.75">
+      <c r="A69" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
